--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/95/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/95/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1871871871871872</v>
+        <v>0.6134613461346134</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.6046046046047</v>
+        <v>861.4061406140614</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02442442442442443</v>
+        <v>0.03872387238723873</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4174174174174174</v>
+        <v>0.0452045204520452</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86.0860860860861</v>
+        <v>508.5408540854086</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86.0860860860861</v>
+        <v>350.8550855085508</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>796.7967967967969</v>
+        <v>233.5904590459046</v>
       </c>
     </row>
   </sheetData>
